--- a/statistics/HistoricalDistanceData/historical_distance/Q60519433-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60519433-en.xlsx
@@ -34,45 +34,45 @@
     <t>Delaware Election Results</t>
   </si>
   <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
+    <t>Find Your Local League</t>
+  </si>
+  <si>
+    <t>2020 President - Sabato's Crystal Ball</t>
+  </si>
+  <si>
+    <t>Poll: Democrats lead by big margins in Delaware</t>
+  </si>
+  <si>
+    <t>Voting &amp; Elections Toolkits</t>
+  </si>
+  <si>
+    <t>Delaware primary elections moved to July 7 due to COVID-19 pandemic</t>
+  </si>
+  <si>
     <t>Biden dominates the electoral map, but here's how the race could tighten</t>
   </si>
   <si>
-    <t>Poll: Democrats lead by big margins in Delaware</t>
-  </si>
-  <si>
-    <t>2020 President - Sabato's Crystal Ball</t>
-  </si>
-  <si>
-    <t>Find Your Local League</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
-    <t>Voting &amp; Elections Toolkits</t>
-  </si>
-  <si>
     <t>2020 Electoral Interactive Map</t>
   </si>
   <si>
-    <t>Delaware primary elections moved to July 7 due to COVID-19 pandemic</t>
-  </si>
-  <si>
     <t>2020-11-03T23:15:02UTC</t>
   </si>
   <si>
+    <t>1-01-01T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-10-05T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-05-07T16:08:00UTC</t>
+  </si>
+  <si>
     <t>2020-08-06T13:13:00UTC</t>
   </si>
   <si>
-    <t>2020-10-05T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>1-01-01T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-05-07T16:08:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -82,28 +82,28 @@
     <t>https://www.nytimes.com/interactive/2020/11/03/us/elections/results-delaware.html</t>
   </si>
   <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
+    <t>https://www.lwv.org/local-leagues/find-local-league</t>
+  </si>
+  <si>
+    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+  </si>
+  <si>
+    <t>https://www.udel.edu/udaily/2020/october/poll--democrats-lead-by-big-margins-in-delaware/</t>
+  </si>
+  <si>
+    <t>https://godort.libguides.com/votingtoolkit/texas</t>
+  </si>
+  <si>
+    <t>https://6abc.com/delaware-covid-19-coronavirus-primary-elections-governor-john-carney/6160158/</t>
+  </si>
+  <si>
     <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
   </si>
   <si>
-    <t>https://www.udel.edu/udaily/2020/october/poll--democrats-lead-by-big-margins-in-delaware/</t>
-  </si>
-  <si>
-    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
-  </si>
-  <si>
-    <t>https://www.lwv.org/local-leagues/find-local-league</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
-    <t>https://godort.libguides.com/votingtoolkit/texas</t>
-  </si>
-  <si>
     <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
-  </si>
-  <si>
-    <t>https://6abc.com/delaware-covid-19-coronavirus-primary-elections-governor-john-carney/6160158/</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -553,7 +553,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -570,7 +570,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -587,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -621,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -638,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
